--- a/backend/storage/app/xlsx/seed_cidades_rr.xlsx
+++ b/backend/storage/app/xlsx/seed_cidades_rr.xlsx
@@ -23,7 +23,7 @@
     <t>AMAJARIENSE</t>
   </si>
   <si>
-    <t>9ac06612-2cb4-4172-bdf2-d7838a895340</t>
+    <t>7ad54ae5-d593-42e1-a26e-6fa62a1012c0</t>
   </si>
   <si>
     <t>ALTO ALEGRE</t>

--- a/backend/storage/app/xlsx/seed_cidades_rr.xlsx
+++ b/backend/storage/app/xlsx/seed_cidades_rr.xlsx
@@ -23,7 +23,7 @@
     <t>AMAJARIENSE</t>
   </si>
   <si>
-    <t>7ad54ae5-d593-42e1-a26e-6fa62a1012c0</t>
+    <t>124e111d-8906-4140-bae1-3642bf861663</t>
   </si>
   <si>
     <t>ALTO ALEGRE</t>

--- a/backend/storage/app/xlsx/seed_cidades_rr.xlsx
+++ b/backend/storage/app/xlsx/seed_cidades_rr.xlsx
@@ -23,7 +23,7 @@
     <t>AMAJARIENSE</t>
   </si>
   <si>
-    <t>124e111d-8906-4140-bae1-3642bf861663</t>
+    <t>c803bfe3-60e9-4746-a985-ae5461e55027</t>
   </si>
   <si>
     <t>ALTO ALEGRE</t>

--- a/backend/storage/app/xlsx/seed_cidades_rr.xlsx
+++ b/backend/storage/app/xlsx/seed_cidades_rr.xlsx
@@ -23,7 +23,7 @@
     <t>AMAJARIENSE</t>
   </si>
   <si>
-    <t>c803bfe3-60e9-4746-a985-ae5461e55027</t>
+    <t>9687ddcf-f3d3-4538-8e4f-b629fef91a64</t>
   </si>
   <si>
     <t>ALTO ALEGRE</t>

--- a/backend/storage/app/xlsx/seed_cidades_rr.xlsx
+++ b/backend/storage/app/xlsx/seed_cidades_rr.xlsx
@@ -23,7 +23,7 @@
     <t>AMAJARIENSE</t>
   </si>
   <si>
-    <t>9687ddcf-f3d3-4538-8e4f-b629fef91a64</t>
+    <t>888c9f87-9c13-4a81-87a6-4a2b068c1189</t>
   </si>
   <si>
     <t>ALTO ALEGRE</t>

--- a/backend/storage/app/xlsx/seed_cidades_rr.xlsx
+++ b/backend/storage/app/xlsx/seed_cidades_rr.xlsx
@@ -23,7 +23,7 @@
     <t>AMAJARIENSE</t>
   </si>
   <si>
-    <t>888c9f87-9c13-4a81-87a6-4a2b068c1189</t>
+    <t>7cc35ca1-c3cb-415b-afdc-d25219907b1d</t>
   </si>
   <si>
     <t>ALTO ALEGRE</t>
